--- a/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27701D7-84C4-4478-ACD4-CB269F0206F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60B4489-E9F2-43B6-A797-D11404C72B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F95673B-6DC2-4A3C-B2D9-B1EDA8FF2B44}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0E72E7-F2DF-4C74-B0FD-AFB3854EA8F4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>82,74%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>17,26%</t>
   </si>
   <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>70,21%</t>
   </si>
   <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,109 +196,109 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -310,205 +310,217 @@
     <t>85,89%</t>
   </si>
   <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>82,0%</t>
   </si>
   <si>
-    <t>88,88%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>84,0%</t>
   </si>
   <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>77,87%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>11,12%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
   </si>
   <si>
     <t>64,7%</t>
   </si>
   <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
   </si>
   <si>
     <t>69,84%</t>
   </si>
   <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
   </si>
   <si>
     <t>67,19%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
+    <t>61,4%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
   </si>
   <si>
     <t>35,3%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
   </si>
   <si>
     <t>53,07%</t>
   </si>
   <si>
-    <t>69,89%</t>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
   </si>
   <si>
     <t>49,54%</t>
   </si>
   <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
   </si>
   <si>
     <t>46,93%</t>
   </si>
   <si>
-    <t>30,11%</t>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
   </si>
   <si>
     <t>50,46%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
@@ -517,211 +529,211 @@
     <t>83,11%</t>
   </si>
   <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>72,17%</t>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>35,75%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
   </si>
   <si>
     <t>57,83%</t>
   </si>
   <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>68,61%</t>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
   </si>
   <si>
     <t>48,32%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
+    <t>64,25%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>66,55%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,45%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D685496D-0FE2-42FF-A5E4-CA8A89075A33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36884773-6000-4BBB-B9EC-A53DF56CDB8A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1884,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C647F780-A4DC-4317-A6C4-BCF0D837953F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EA429B-58E6-4E1A-8660-2FD6C8D8AEB7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,10 +2038,10 @@
         <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -2038,13 +2050,13 @@
         <v>179442</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2071,13 @@
         <v>15519</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -2074,13 +2086,13 @@
         <v>18656</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -2089,13 +2101,13 @@
         <v>34176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,13 +2175,13 @@
         <v>107244</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -2178,13 +2190,13 @@
         <v>108623</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>200</v>
@@ -2193,13 +2205,13 @@
         <v>215867</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2214,13 +2226,13 @@
         <v>58518</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -2229,13 +2241,13 @@
         <v>46898</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -2244,13 +2256,13 @@
         <v>105416</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,13 +2330,13 @@
         <v>21205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2333,13 +2345,13 @@
         <v>19007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2348,13 +2360,13 @@
         <v>40212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,13 +2381,13 @@
         <v>24157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2384,13 +2396,13 @@
         <v>16808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2399,13 +2411,13 @@
         <v>40965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2473,13 +2485,13 @@
         <v>222927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -2488,13 +2500,13 @@
         <v>212595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>402</v>
@@ -2503,13 +2515,13 @@
         <v>435522</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,13 +2536,13 @@
         <v>98194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2539,13 +2551,13 @@
         <v>82363</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -2554,13 +2566,13 @@
         <v>180557</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2635,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622CFA4B-1FFD-471F-A73D-563708E0ED81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0AE4C1-3C0D-4F2D-AE59-EBC2B67F2A1D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2652,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2759,13 +2771,13 @@
         <v>51289</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -2774,13 +2786,13 @@
         <v>49450</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -2789,13 +2801,13 @@
         <v>100739</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2822,13 @@
         <v>10426</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -2825,13 +2837,13 @@
         <v>20836</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2840,13 +2852,13 @@
         <v>31262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2926,13 @@
         <v>83082</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -2929,13 +2941,13 @@
         <v>113568</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -2944,13 +2956,13 @@
         <v>196650</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2977,13 @@
         <v>72895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -2980,13 +2992,13 @@
         <v>60930</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>123</v>
@@ -2995,13 +3007,13 @@
         <v>133825</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3081,13 @@
         <v>20337</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3084,13 +3096,13 @@
         <v>27016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -3099,13 +3111,13 @@
         <v>47353</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3120,13 +3132,13 @@
         <v>19016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>204</v>
+        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3135,13 +3147,13 @@
         <v>15513</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -3150,13 +3162,13 @@
         <v>34529</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3236,13 @@
         <v>154709</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -3239,13 +3251,13 @@
         <v>190033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -3254,13 +3266,13 @@
         <v>344742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3287,13 @@
         <v>102337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -3290,13 +3302,13 @@
         <v>97280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -3305,13 +3317,13 @@
         <v>199616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60B4489-E9F2-43B6-A797-D11404C72B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C10B86-9A59-45E9-9529-85599F9B9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4E0E72E7-F2DF-4C74-B0FD-AFB3854EA8F4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B912CAC3-CE5C-4FE0-82F3-B85AF19ECF19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,28 +76,28 @@
     <t>82,74%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>17,26%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>70,21%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,544 +196,544 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>69,9%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
     <t>66,99%</t>
   </si>
   <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
   </si>
   <si>
     <t>33,01%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>77,87%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,4%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>63,67%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>61,64%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
+    <t>54,03%</t>
+  </si>
+  <si>
+    <t>64,94%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>35,75%</t>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>57,83%</t>
   </si>
   <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
   </si>
   <si>
     <t>48,32%</t>
   </si>
   <si>
-    <t>64,25%</t>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
+    <t>53,65%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36884773-6000-4BBB-B9EC-A53DF56CDB8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1709DA86-6018-4D05-BF6B-3EAC50A61CF5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52EA429B-58E6-4E1A-8660-2FD6C8D8AEB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD33FEB-2F5A-43AC-BCB9-870C12EDECF0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2491,7 @@
         <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>145</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -2500,13 +2500,13 @@
         <v>212595</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>402</v>
@@ -2515,13 +2515,13 @@
         <v>435522</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2536,13 @@
         <v>98194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2551,13 +2551,13 @@
         <v>82363</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -2566,13 +2566,13 @@
         <v>180557</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0AE4C1-3C0D-4F2D-AE59-EBC2B67F2A1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235F4DA9-466D-4BFB-9B45-8BAE90E8C406}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2664,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,13 +2771,13 @@
         <v>51289</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -2786,13 +2786,13 @@
         <v>49450</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -2801,13 +2801,13 @@
         <v>100739</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2822,13 @@
         <v>10426</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -2837,13 +2837,13 @@
         <v>20836</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2852,13 +2852,13 @@
         <v>31262</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2926,13 @@
         <v>83082</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -2941,13 +2941,13 @@
         <v>113568</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -2956,13 +2956,13 @@
         <v>196650</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2977,13 @@
         <v>72895</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -2992,13 +2992,13 @@
         <v>60930</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>123</v>
@@ -3007,13 +3007,13 @@
         <v>133825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3081,13 @@
         <v>20337</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3096,13 +3096,13 @@
         <v>27016</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -3111,13 +3111,13 @@
         <v>47353</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,10 +3132,10 @@
         <v>19016</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>207</v>

--- a/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85C10B86-9A59-45E9-9529-85599F9B9A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8450F1C-15DA-4FB6-A40A-687A4BF060B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B912CAC3-CE5C-4FE0-82F3-B85AF19ECF19}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFED06AC-F0B2-43B6-9A4C-AFDE7CD1F7FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="228">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -70,34 +70,34 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
   </si>
   <si>
     <t>76,74%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
   </si>
   <si>
     <t>80,05%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>17,26%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>23,26%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>70,21%</t>
   </si>
   <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
   </si>
   <si>
     <t>79,31%</t>
   </si>
   <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
   </si>
   <si>
     <t>29,79%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>20,69%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -196,325 +196,319 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
   </si>
   <si>
     <t>53,63%</t>
   </si>
   <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>67,62%</t>
   </si>
   <si>
     <t>60,23%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>46,37%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
   </si>
   <si>
     <t>39,77%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>71,88%</t>
+  </si>
+  <si>
+    <t>69,84%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
     <t>50,46%</t>
   </si>
   <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>64,1%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>35,9%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
@@ -523,217 +517,211 @@
     <t>83,11%</t>
   </si>
   <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>70,36%</t>
   </si>
   <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
   </si>
   <si>
     <t>76,32%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
   </si>
   <si>
     <t>29,64%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
   </si>
   <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
   </si>
   <si>
     <t>53,27%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
   </si>
   <si>
     <t>65,08%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>59,51%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
   </si>
   <si>
     <t>46,73%</t>
   </si>
   <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>54,91%</t>
   </si>
   <si>
     <t>34,92%</t>
   </si>
   <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>40,49%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
   </si>
   <si>
     <t>63,52%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>57,83%</t>
   </si>
   <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
   </si>
   <si>
     <t>48,32%</t>
   </si>
   <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>36,48%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
   </si>
   <si>
     <t>42,17%</t>
   </si>
   <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>66,55%</t>
   </si>
   <si>
     <t>66,14%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>71,85%</t>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>71,22%</t>
   </si>
   <si>
     <t>63,33%</t>
   </si>
   <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>33,45%</t>
   </si>
   <si>
     <t>33,86%</t>
   </si>
   <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1709DA86-6018-4D05-BF6B-3EAC50A61CF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B1B80-D4F6-4E16-A5C4-7988EBFFFC5C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BD33FEB-2F5A-43AC-BCB9-870C12EDECF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDEBDC4-F83B-40D5-8D30-84762AF646EB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2038,10 +2026,10 @@
         <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>168</v>
@@ -2050,13 +2038,13 @@
         <v>179442</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,13 +2059,13 @@
         <v>15519</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -2086,13 +2074,13 @@
         <v>18656</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -2101,13 +2089,13 @@
         <v>34176</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2163,13 @@
         <v>107244</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -2190,13 +2178,13 @@
         <v>108623</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>200</v>
@@ -2205,13 +2193,13 @@
         <v>215867</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,13 +2214,13 @@
         <v>58518</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>46</v>
@@ -2241,13 +2229,13 @@
         <v>46898</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>102</v>
@@ -2256,13 +2244,13 @@
         <v>105416</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,13 +2318,13 @@
         <v>21205</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -2345,13 +2333,13 @@
         <v>19007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2360,13 +2348,13 @@
         <v>40212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,13 +2369,13 @@
         <v>24157</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2396,13 +2384,13 @@
         <v>16808</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -2411,13 +2399,13 @@
         <v>40965</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2473,13 @@
         <v>222927</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>199</v>
@@ -2500,13 +2488,13 @@
         <v>212595</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>402</v>
@@ -2515,13 +2503,13 @@
         <v>435522</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2524,13 @@
         <v>98194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2551,13 +2539,13 @@
         <v>82363</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>171</v>
@@ -2566,13 +2554,13 @@
         <v>180557</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235F4DA9-466D-4BFB-9B45-8BAE90E8C406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E87F90-D76A-4BC2-B2A7-DF8C97C676D9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2664,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2771,13 +2759,13 @@
         <v>51289</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>43</v>
@@ -2786,13 +2774,13 @@
         <v>49450</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -2801,13 +2789,13 @@
         <v>100739</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2810,13 @@
         <v>10426</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -2837,13 +2825,13 @@
         <v>20836</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>28</v>
@@ -2852,13 +2840,13 @@
         <v>31262</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2914,13 @@
         <v>83082</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -2941,13 +2929,13 @@
         <v>113568</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>189</v>
@@ -2956,13 +2944,13 @@
         <v>196650</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2965,13 @@
         <v>72895</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>57</v>
@@ -2992,13 +2980,13 @@
         <v>60930</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>123</v>
@@ -3007,13 +2995,13 @@
         <v>133825</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3069,13 @@
         <v>20337</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -3096,13 +3084,13 @@
         <v>27016</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>46</v>
@@ -3111,13 +3099,13 @@
         <v>47353</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3120,13 @@
         <v>19016</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -3147,13 +3135,13 @@
         <v>15513</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -3162,13 +3150,13 @@
         <v>34529</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3224,13 @@
         <v>154709</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -3251,13 +3239,13 @@
         <v>190033</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>331</v>
@@ -3266,13 +3254,13 @@
         <v>344742</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3275,13 @@
         <v>102337</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>90</v>
@@ -3302,13 +3290,13 @@
         <v>97280</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>183</v>
@@ -3317,13 +3305,13 @@
         <v>199616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8450F1C-15DA-4FB6-A40A-687A4BF060B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66DF3A28-46B7-45B2-8F6B-7D8ADB80F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DFED06AC-F0B2-43B6-9A4C-AFDE7CD1F7FE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{82349887-2249-4BE5-B29C-09396D22D6D8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1133,7 +1133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B1B80-D4F6-4E16-A5C4-7988EBFFFC5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8863E1-EAB8-4B89-AA7D-77BBE264A64E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1884,7 +1884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFDEBDC4-F83B-40D5-8D30-84762AF646EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B343DB1-A3C3-4BA0-BE54-88546E383528}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2635,7 +2635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E87F90-D76A-4BC2-B2A7-DF8C97C676D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACE080C-A21D-4A2B-A758-B492D7EDDA77}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3302,7 +3302,7 @@
         <v>183</v>
       </c>
       <c r="N14" s="7">
-        <v>199616</v>
+        <v>199617</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>225</v>
@@ -3353,7 +3353,7 @@
         <v>514</v>
       </c>
       <c r="N15" s="7">
-        <v>544358</v>
+        <v>544359</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
